--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/20/seed3/result_data_KNN.xlsx
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.412</v>
+        <v>-22.26</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.568</v>
+        <v>-21.727</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.576</v>
+        <v>-21.696</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.41</v>
+        <v>-22.187</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.932</v>
+        <v>-21.737</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.398</v>
+        <v>-20.232</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.178</v>
+        <v>-22.164</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.586</v>
+        <v>-21.696</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.704</v>
+        <v>-20.48</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20</v>
+        <v>-19.915</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.642</v>
+        <v>-21.57</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.884</v>
+        <v>-20.193</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.888</v>
+        <v>-21.797</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.106</v>
+        <v>-22.152</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.204</v>
+        <v>-22.047</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.094</v>
+        <v>-21.249</v>
       </c>
       <c r="B101" t="n">
         <v>7.61</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.196</v>
+        <v>-20.501</v>
       </c>
       <c r="B102" t="n">
         <v>9.01</v>
